--- a/myapp/files/9_MethodComparePercent/Scenario 362.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 362.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>4050</v>
+        <v>13867</v>
       </c>
       <c r="F2" t="n">
-        <v>3.79668516574171</v>
+        <v>2.3472994292137</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.91803278688525</v>
+        <v>1.98412698412698</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>6621</v>
+        <v>20657</v>
       </c>
       <c r="F3" t="n">
-        <v>6.20687715614219</v>
+        <v>3.49665856416437</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>8.19672131147541</v>
+        <v>3.57142857142857</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>4708</v>
+        <v>21789</v>
       </c>
       <c r="F4" t="n">
-        <v>4.41352932353382</v>
+        <v>3.68827484410018</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.27868852459016</v>
+        <v>3.17460317460317</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>2340</v>
+        <v>19905</v>
       </c>
       <c r="F5" t="n">
-        <v>2.1936403179841</v>
+        <v>3.36936577042609</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -707,10 +707,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>3.27868852459016</v>
+        <v>3.96825396825397</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>12369</v>
+        <v>22831</v>
       </c>
       <c r="F6" t="n">
-        <v>11.5953577321134</v>
+        <v>3.8646566141471</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -745,10 +745,10 @@
         <v>4.16666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>8.19672131147541</v>
+        <v>3.96825396825397</v>
       </c>
       <c r="K6" t="n">
         <v>5</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>10773</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.82357083370009</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -783,10 +783,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.793650793650794</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>3402</v>
+        <v>24296</v>
       </c>
       <c r="F8" t="n">
-        <v>3.18921553922304</v>
+        <v>4.11264058067181</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -821,10 +821,10 @@
         <v>4.16666666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>1.63934426229508</v>
+        <v>3.17460317460317</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>4791</v>
+        <v>33084</v>
       </c>
       <c r="F9" t="n">
-        <v>4.49133793310334</v>
+        <v>5.60020583515583</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>3.27868852459016</v>
+        <v>5.15873015873016</v>
       </c>
       <c r="K9" t="n">
         <v>3</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>697</v>
+        <v>40202</v>
       </c>
       <c r="F10" t="n">
-        <v>0.653404829758512</v>
+        <v>6.8050862950349</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -897,10 +897,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
-        <v>4.91803278688525</v>
+        <v>7.14285714285714</v>
       </c>
       <c r="K10" t="n">
         <v>6</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>6466</v>
+        <v>24808</v>
       </c>
       <c r="F11" t="n">
-        <v>6.06157192140393</v>
+        <v>4.19930801470638</v>
       </c>
       <c r="G11" t="n">
         <v>7</v>
@@ -935,10 +935,10 @@
         <v>9.72222222222222</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>4.91803278688525</v>
+        <v>5.95238095238095</v>
       </c>
       <c r="K11" t="n">
         <v>5</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>8166</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.38227786391859</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.793650793650794</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>15011</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.54094697713469</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.38095238095238</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>9378</v>
+        <v>41974</v>
       </c>
       <c r="F14" t="n">
-        <v>8.79143542822859</v>
+        <v>7.10503686751393</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1049,10 +1049,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>4.91803278688525</v>
+        <v>4.36507936507936</v>
       </c>
       <c r="K14" t="n">
         <v>4</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>5138</v>
+        <v>43291</v>
       </c>
       <c r="F15" t="n">
-        <v>4.81663416829159</v>
+        <v>7.32796852888802</v>
       </c>
       <c r="G15" t="n">
         <v>7</v>
@@ -1087,10 +1087,10 @@
         <v>9.72222222222222</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>4.91803278688525</v>
+        <v>6.34920634920635</v>
       </c>
       <c r="K15" t="n">
         <v>5</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>10839</v>
+        <v>34128</v>
       </c>
       <c r="F16" t="n">
-        <v>10.1610544472776</v>
+        <v>5.77692614986695</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -1125,10 +1125,10 @@
         <v>6.94444444444444</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J16" t="n">
-        <v>9.83606557377049</v>
+        <v>6.74603174603175</v>
       </c>
       <c r="K16" t="n">
         <v>8</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5583</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.945047430107454</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.793650793650794</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>9786</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.6564990419186</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.58730158730159</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>19063</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.22683846679892</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -1239,10 +1239,10 @@
         <v>5.55555555555556</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.96825396825397</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>1833</v>
+        <v>36145</v>
       </c>
       <c r="F20" t="n">
-        <v>1.71835158242088</v>
+        <v>6.11834844371018</v>
       </c>
       <c r="G20" t="n">
         <v>11</v>
@@ -1277,10 +1277,10 @@
         <v>15.2777777777778</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J20" t="n">
-        <v>1.63934426229508</v>
+        <v>6.34920634920635</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>30064</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>5.08900339221753</v>
       </c>
       <c r="G21" t="n">
         <v>9</v>
@@ -1315,16 +1315,16 @@
         <v>12.5</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.34920634920635</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.38888888888889</v>
+        <v>2.77777777777778</v>
       </c>
     </row>
     <row r="22">
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>2627</v>
+        <v>7853</v>
       </c>
       <c r="F22" t="n">
-        <v>2.46268936553172</v>
+        <v>1.32929562397167</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.63934426229508</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2997</v>
+        <v>12231</v>
       </c>
       <c r="F23" t="n">
-        <v>2.80954702264887</v>
+        <v>2.0703698939001</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.63934426229508</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>3795</v>
+        <v>16306</v>
       </c>
       <c r="F24" t="n">
-        <v>3.55763461826909</v>
+        <v>2.76015464720261</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
-        <v>3.27868852459016</v>
+        <v>3.57142857142857</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>8741</v>
+        <v>32716</v>
       </c>
       <c r="F25" t="n">
-        <v>8.19427778611069</v>
+        <v>5.53791361694348</v>
       </c>
       <c r="G25" t="n">
         <v>6</v>
@@ -1467,10 +1467,10 @@
         <v>8.33333333333333</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J25" t="n">
-        <v>11.4754098360656</v>
+        <v>6.74603174603175</v>
       </c>
       <c r="K25" t="n">
         <v>5</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>15880</v>
+        <v>46235</v>
       </c>
       <c r="F26" t="n">
-        <v>14.8867556622169</v>
+        <v>7.82630627458681</v>
       </c>
       <c r="G26" t="n">
         <v>5</v>
@@ -1505,16 +1505,16 @@
         <v>6.94444444444444</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J26" t="n">
-        <v>18.0327868852459</v>
+        <v>8.73015873015873</v>
       </c>
       <c r="K26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L26" t="n">
-        <v>15.2777777777778</v>
+        <v>13.8888888888889</v>
       </c>
     </row>
   </sheetData>
